--- a/gce traffic network weight punish.xlsx
+++ b/gce traffic network weight punish.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric Taw\Documents\MATLAB\dtc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drezemma\GCE-Traffic-Simulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5928"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5925"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t>entrance</t>
   </si>
@@ -132,6 +132,36 @@
   </si>
   <si>
     <t>h31</t>
+  </si>
+  <si>
+    <t>stair1</t>
+  </si>
+  <si>
+    <t>o4</t>
+  </si>
+  <si>
+    <t>h4</t>
+  </si>
+  <si>
+    <t>d1</t>
+  </si>
+  <si>
+    <t>h10</t>
+  </si>
+  <si>
+    <t>h11</t>
+  </si>
+  <si>
+    <t>h12</t>
+  </si>
+  <si>
+    <t>h13</t>
+  </si>
+  <si>
+    <t>room4</t>
+  </si>
+  <si>
+    <t>h14</t>
   </si>
 </sst>
 </file>
@@ -454,12 +484,12 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -581,7 +611,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -589,7 +619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -600,58 +630,58 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="Y5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="Y5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
       <c r="F7">
         <v>3</v>
       </c>
@@ -662,15 +692,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -678,23 +708,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -702,9 +732,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -716,7 +746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -724,7 +754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -738,7 +768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -749,9 +779,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="P17">
         <v>3</v>
@@ -760,9 +790,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -774,7 +804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -785,7 +815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -793,7 +823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -807,7 +837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -815,7 +845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -826,7 +856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -840,7 +870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -857,7 +887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -874,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -888,9 +918,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Y28">
         <v>2</v>
@@ -905,7 +935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -919,7 +949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -927,9 +957,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="AC31">
         <v>2</v>
@@ -938,9 +968,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AB32">
         <v>2</v>
@@ -958,7 +988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -966,7 +996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -974,9 +1004,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="AF35">
         <v>2</v>
@@ -991,17 +1021,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AI36">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="AI37">
         <v>3</v>
@@ -1010,9 +1040,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="X38">
         <v>3</v>
@@ -1030,7 +1060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -1038,7 +1068,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -1046,7 +1076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>29</v>
       </c>
